--- a/dtpu_configurations/only_integer32/80mhz/mxu_3x3/timing.xlsx
+++ b/dtpu_configurations/only_integer32/80mhz/mxu_3x3/timing.xlsx
@@ -23,7 +23,7 @@
     <t>WHS</t>
   </si>
   <si>
-    <t>impl_1, impl_1_route_report_timing_summary_0</t>
+    <t>retiming, retiming_route_report_timing_summary_0</t>
   </si>
 </sst>
 </file>
@@ -98,7 +98,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.40625" customWidth="true"/>
+    <col min="1" max="1" width="55.15625" customWidth="true"/>
     <col min="2" max="2" width="8.75" customWidth="true"/>
     <col min="3" max="3" width="8.75" customWidth="true"/>
   </cols>
@@ -119,10 +119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.005506706424057484</v>
+        <v>2.2456204891204834</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.020987212657928467</v>
+        <v>0.015563994646072388</v>
       </c>
     </row>
   </sheetData>
